--- a/src/SystemLog/wwwroot/ReportTemplate/TempLogsystem.xlsx
+++ b/src/SystemLog/wwwroot/ReportTemplate/TempLogsystem.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ตารางบันทึกเพื่อการติดตามสถานะการทำงานพร้อมสรุปผล</t>
   </si>
@@ -35,10 +35,10 @@
     <t>จัดทำโดย:</t>
   </si>
   <si>
-    <t>bunchuai chaiket</t>
-  </si>
-  <si>
-    <t>03 ก.พ. 2560 ถึง 01 ก.พ. 2560</t>
+    <t>ภาสกร ปารพรมธำรง</t>
+  </si>
+  <si>
+    <t>01 ก.พ. 2560 ถึง 28 ก.พ. 2560</t>
   </si>
   <si>
     <t>วันที่</t>
@@ -68,7 +68,25 @@
     <t>แนวทางแก้ไข</t>
   </si>
   <si>
-    <t>--- ไม่มีข้อมูลการติดตามสถานะการดำเนินงาน ---</t>
+    <t>01 ก.พ. 2560</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>02 เม.ย. 2560</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>50%</t>
   </si>
 </sst>
 </file>
@@ -442,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -526,6 +544,47 @@
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -534,7 +593,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/src/SystemLog/wwwroot/ReportTemplate/TempLogsystem.xlsx
+++ b/src/SystemLog/wwwroot/ReportTemplate/TempLogsystem.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ตารางบันทึกเพื่อการติดตามสถานะการทำงานพร้อมสรุปผล</t>
   </si>
@@ -35,10 +35,10 @@
     <t>จัดทำโดย:</t>
   </si>
   <si>
-    <t>ภาสกร ปารพรมธำรง</t>
-  </si>
-  <si>
-    <t>01 ก.พ. 2560 ถึง 28 ก.พ. 2560</t>
+    <t>ภาสกร ปานพรมธำรง</t>
+  </si>
+  <si>
+    <t>01 ก.พ. 2560 ถึง 02 ก.พ. 2560</t>
   </si>
   <si>
     <t>วันที่</t>
@@ -74,16 +74,22 @@
     <t>TS</t>
   </si>
   <si>
-    <t>Log</t>
-  </si>
-  <si>
-    <t>02 เม.ย. 2560</t>
-  </si>
-  <si>
-    <t>30%</t>
+    <t>็Helpdesk</t>
+  </si>
+  <si>
+    <t>02 ต.ค. 2560</t>
+  </si>
+  <si>
+    <t>40%</t>
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Helpdesk</t>
   </si>
   <si>
     <t>50%</t>
@@ -568,16 +574,16 @@
         <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>18</v>

--- a/src/SystemLog/wwwroot/ReportTemplate/TempLogsystem.xlsx
+++ b/src/SystemLog/wwwroot/ReportTemplate/TempLogsystem.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>ตารางบันทึกเพื่อการติดตามสถานะการทำงานพร้อมสรุปผล</t>
   </si>
@@ -38,7 +38,7 @@
     <t>ภาสกร ปานพรมธำรง</t>
   </si>
   <si>
-    <t>01 ก.พ. 2560 ถึง 02 ก.พ. 2560</t>
+    <t>01ก.พ. 2560 ถึง 28ก.พ. 2560</t>
   </si>
   <si>
     <t>วันที่</t>
@@ -68,16 +68,16 @@
     <t>แนวทางแก้ไข</t>
   </si>
   <si>
-    <t>01 ก.พ. 2560</t>
+    <t>03ก.พ. 2560</t>
   </si>
   <si>
     <t>TS</t>
   </si>
   <si>
-    <t>็Helpdesk</t>
-  </si>
-  <si>
-    <t>02 ต.ค. 2560</t>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>02ม.ค. 2560</t>
   </si>
   <si>
     <t>40%</t>
@@ -86,13 +86,28 @@
     <t>-</t>
   </si>
   <si>
-    <t>TT</t>
+    <t>06ก.พ. 2560</t>
+  </si>
+  <si>
+    <t>08ก.พ. 2560</t>
+  </si>
+  <si>
+    <t>3%</t>
   </si>
   <si>
     <t>Helpdesk</t>
   </si>
   <si>
-    <t>50%</t>
+    <t>13ก.พ. 2560</t>
+  </si>
+  <si>
+    <t>4%</t>
+  </si>
+  <si>
+    <t>14ก.พ. 2560</t>
+  </si>
+  <si>
+    <t>สำเร็จ</t>
   </si>
 </sst>
 </file>
@@ -466,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -571,16 +586,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>21</v>
@@ -589,6 +604,52 @@
         <v>18</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>18</v>
       </c>
     </row>

--- a/src/SystemLog/wwwroot/ReportTemplate/TempLogsystem.xlsx
+++ b/src/SystemLog/wwwroot/ReportTemplate/TempLogsystem.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ตารางบันทึกเพื่อการติดตามสถานะการทำงานพร้อมสรุปผล</t>
   </si>
@@ -35,10 +35,10 @@
     <t>จัดทำโดย:</t>
   </si>
   <si>
-    <t>ภาสกร ปานพรมธำรง</t>
-  </si>
-  <si>
-    <t>01ก.พ. 2560 ถึง 28ก.พ. 2560</t>
+    <t>bunchuai Ch</t>
+  </si>
+  <si>
+    <t>01 ก.พ. 2560 ถึง 28 ก.พ. 2560</t>
   </si>
   <si>
     <t>วันที่</t>
@@ -68,46 +68,31 @@
     <t>แนวทางแก้ไข</t>
   </si>
   <si>
-    <t>03ก.พ. 2560</t>
-  </si>
-  <si>
-    <t>TS</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>02ม.ค. 2560</t>
-  </si>
-  <si>
-    <t>40%</t>
+    <t>01 ก.พ. 2560</t>
+  </si>
+  <si>
+    <t>หด</t>
+  </si>
+  <si>
+    <t>fsd</t>
+  </si>
+  <si>
+    <t>13 ก.พ. 2560</t>
+  </si>
+  <si>
+    <t>สำเร็จ</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>06ก.พ. 2560</t>
-  </si>
-  <si>
-    <t>08ก.พ. 2560</t>
-  </si>
-  <si>
-    <t>3%</t>
-  </si>
-  <si>
-    <t>Helpdesk</t>
-  </si>
-  <si>
-    <t>13ก.พ. 2560</t>
-  </si>
-  <si>
-    <t>4%</t>
-  </si>
-  <si>
-    <t>14ก.พ. 2560</t>
-  </si>
-  <si>
-    <t>สำเร็จ</t>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>15 ก.พ. 2560</t>
+  </si>
+  <si>
+    <t>10%</t>
   </si>
 </sst>
 </file>
@@ -125,22 +110,22 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="TH Sarabun New"/>
+      <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="TH Sarabun New"/>
+      <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="TH Sarabun New"/>
+      <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -179,26 +164,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -216,6 +198,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7058025" y="0"/>
+          <a:ext cx="1943100" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,188 +512,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1" style="6"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1" style="6"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1" style="6"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1" style="6"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1" style="6"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1" style="6"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1" style="6"/>
-    <col min="8" max="16384" width="9.140625" customWidth="1" style="6"/>
+    <col min="1" max="1" width="9" customWidth="1" style="2"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1" style="2"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1" style="2"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1" style="2"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1" style="2"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1" style="2"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1" style="2"/>
+    <col min="8" max="8" width="9.140625" customWidth="1" style="2"/>
+    <col min="9" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27">
-      <c r="A1" s="8" t="s">
+    <row r="1" ht="27.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="G8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>